--- a/H03/penAndPaper.xlsx
+++ b/H03/penAndPaper.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\OneDrive\Ambiente de Trabalho\Uni\3Ano\1Semestre\Aprendizagem\homeworks\H03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C780D9-3E03-4815-A1CE-5952FE99B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC00FD6-C76F-43EF-9EE6-2E90713BFA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" xr2:uid="{3F99BE05-4FB4-4B18-9D3E-8377642AD4C2}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" activeTab="1" xr2:uid="{3F99BE05-4FB4-4B18-9D3E-8377642AD4C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1a)" sheetId="1" r:id="rId1"/>
+    <sheet name="1b)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>a[0]</t>
   </si>
@@ -112,37 +113,97 @@
     <t>BACK PROPAGATION</t>
   </si>
   <si>
-    <t>∇a[3]  e</t>
-  </si>
-  <si>
-    <t>∇N[3]  a[3]</t>
-  </si>
-  <si>
     <t>δ[3]</t>
   </si>
   <si>
-    <t>∇a[2]  N[3]</t>
-  </si>
-  <si>
-    <t>∇N[2]  a[2]</t>
-  </si>
-  <si>
     <t>δ[2]</t>
   </si>
   <si>
-    <t>∇N[1]  a[1]</t>
-  </si>
-  <si>
     <t>δ[1]</t>
   </si>
   <si>
-    <t>∇b[3]  N[3]</t>
-  </si>
-  <si>
-    <t>∇b[2]  N[2]</t>
-  </si>
-  <si>
-    <t>∇b[1]  N[1]</t>
+    <t>UPDATES</t>
+  </si>
+  <si>
+    <t>∂e / ∂a[3]</t>
+  </si>
+  <si>
+    <t>∂a[3] / ∂N[3]</t>
+  </si>
+  <si>
+    <t>∂N[3] / ∂a[2]</t>
+  </si>
+  <si>
+    <t>∂a[2] / ∂N[2]</t>
+  </si>
+  <si>
+    <t>∂a[1] / ∂N[1]</t>
+  </si>
+  <si>
+    <t>∂N[2] / ∂a[1]</t>
+  </si>
+  <si>
+    <t>∂N[3] / ∂b[3]</t>
+  </si>
+  <si>
+    <t>∂N[2] / ∂b[2]</t>
+  </si>
+  <si>
+    <t>∂N[1] / ∂b[1]</t>
+  </si>
+  <si>
+    <t>∂e / ∂W[3]</t>
+  </si>
+  <si>
+    <t>(∂N[3] / ∂W[3]) ^T</t>
+  </si>
+  <si>
+    <t>(∂N[2] / ∂W[2]) ^T</t>
+  </si>
+  <si>
+    <t>(∂N[1] / ∂W[1]) ^T</t>
+  </si>
+  <si>
+    <t>∂e / ∂W[2]</t>
+  </si>
+  <si>
+    <t>∂e / ∂W[1]</t>
+  </si>
+  <si>
+    <t>W[3]_new</t>
+  </si>
+  <si>
+    <t>W[2]_new</t>
+  </si>
+  <si>
+    <t>W[1]_new</t>
+  </si>
+  <si>
+    <t>∂e / ∂Wb[3]</t>
+  </si>
+  <si>
+    <t>∂e / ∂Wb[2]</t>
+  </si>
+  <si>
+    <t>∂e / ∂Wb[1]</t>
+  </si>
+  <si>
+    <t>b[3]_new</t>
+  </si>
+  <si>
+    <t>b[2]_new</t>
+  </si>
+  <si>
+    <t>b[1]_new</t>
+  </si>
+  <si>
+    <t>e^{N[3]}</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Cross-Entropy</t>
   </si>
 </sst>
 </file>
@@ -178,8 +239,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB8D5E-2056-43FA-90B7-31BD9E7420A9}">
-  <dimension ref="B1:N45"/>
+  <dimension ref="B1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:L19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -519,13 +583,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,11 +690,11 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
@@ -691,10 +755,10 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,19 +857,23 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1"/>
       <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
@@ -827,7 +895,14 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M31" cm="1">
+        <f t="array" ref="M31:N31">TRANSPOSE(H18:H19)</f>
+        <v>0.99891971703265969</v>
+      </c>
+      <c r="N31">
+        <v>0.99891971703265969</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -846,30 +921,35 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="2"/>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="H36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" cm="1">
         <f t="array" ref="B37:C38">TRANSPOSE(B18:C19)</f>
         <v>0</v>
@@ -892,10 +972,20 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M37" cm="1">
+        <f t="array" ref="M37:O37">TRANSPOSE(H12:H14)</f>
+        <v>0.99998771165079559</v>
+      </c>
+      <c r="N37">
+        <v>0.76159415595576485</v>
+      </c>
+      <c r="O37">
+        <v>0.99998771165079559</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0</v>
       </c>
@@ -913,32 +1003,39 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="I42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" cm="1">
         <f t="array" ref="B43:C45">TRANSPOSE(B12:D13)</f>
         <v>1</v>
@@ -964,13 +1061,29 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43" cm="1">
+        <f t="array" ref="O43:S43">TRANSPOSE(H5:H9)</f>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1</v>
       </c>
@@ -991,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1</v>
       </c>
@@ -1021,49 +1134,1216 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="N50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" cm="1">
+        <f t="array" ref="B51:C52">MMULT(_xlfn.ANCHORARRAY(H31),_xlfn.ANCHORARRAY( M31))</f>
+        <v>-0.99891971703265969</v>
+      </c>
+      <c r="C51">
+        <v>-0.99891971703265969</v>
+      </c>
+      <c r="E51" cm="1">
+        <f t="array" ref="E51:F52">B18:C19 - (0.1 *_xlfn.ANCHORARRAY( B51))</f>
+        <v>9.9891971703265969E-2</v>
+      </c>
+      <c r="F51">
+        <v>9.9891971703265969E-2</v>
+      </c>
+      <c r="N51" cm="1">
+        <f t="array" ref="N51:N52">MMULT(J31:K32,_xlfn.ANCHORARRAY( H31))</f>
+        <v>-1</v>
+      </c>
+      <c r="P51" cm="1">
+        <f t="array" ref="P51:P52">J18:J19 + (0.1 *_xlfn.ANCHORARRAY( N51))</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.99891971703265969</v>
+      </c>
+      <c r="C52">
+        <v>0.99891971703265969</v>
+      </c>
+      <c r="E52">
+        <v>-9.9891971703265969E-2</v>
+      </c>
+      <c r="F52">
+        <v>-9.9891971703265969E-2</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="N56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" cm="1">
+        <f t="array" ref="B57:D58">MMULT(_xlfn.ANCHORARRAY(H37),_xlfn.ANCHORARRAY( M37))</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57:H58">B12:D13 - (0.1 *_xlfn.ANCHORARRAY( B57))</f>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="N57" cm="1">
+        <f t="array" ref="N57:N58">MMULT(J37:K38,_xlfn.ANCHORARRAY( H37))</f>
+        <v>0</v>
+      </c>
+      <c r="P57" cm="1">
+        <f t="array" ref="P57:P58">J12:J13 - (0.1 *_xlfn.ANCHORARRAY( N57))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="N62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" cm="1">
+        <f t="array" ref="B63:F65">MMULT(_xlfn.ANCHORARRAY(I43),_xlfn.ANCHORARRAY( O43))</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="H63" cm="1">
+        <f t="array" ref="H63:L65">B5:F7 - (0.1 *_xlfn.ANCHORARRAY( B63))</f>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="N63" cm="1">
+        <f t="array" ref="N63:N65">MMULT(K43:M45,_xlfn.ANCHORARRAY( I43))</f>
+        <v>0</v>
+      </c>
+      <c r="P63" cm="1">
+        <f t="array" ref="P63:P65">J5:J7 - (0.1 *_xlfn.ANCHORARRAY( N63))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="K42:M42"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="H62:L62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A18C03A-20AB-49B0-BC94-3791C9AC73E6}">
+  <dimension ref="B1:S65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5:L7">MMULT(B5:F7, H5:H9) + J5:J7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>TANH(L5)</f>
+        <v>0.99998771165079559</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12:L13">MMULT(B12:D13, H12:H14) + J12:J13</f>
+        <v>3.761569579257356</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>TANH(L6)</f>
+        <v>0.76159415595576485</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>3.761569579257356</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>TANH(L7)</f>
+        <v>0.99998771165079559</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>TANH(L12)</f>
+        <v>0.99891971703265969</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18" cm="1">
+        <f t="array" ref="L18:L19">MMULT(B18:C19, H18:H19) + J18:J19</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>EXP(L18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>TANH(L13)</f>
+        <v>0.99891971703265969</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>EXP(L19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>N18 / SUM(N18:N19)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>J23 * LOG(H23, 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <f xml:space="preserve"> - SUM(L23:L24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f>N19 / SUM(N18:N19)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>J24 * LOG(H24, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>-J23/H23</f>
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <f xml:space="preserve"> H23*(1 - H23)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F31">
+        <f>-H23*H24</f>
+        <v>-0.25</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31:H32">MMULT(E31:F32, B31:B32)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31" cm="1">
+        <f t="array" ref="M31:N31">TRANSPOSE(H18:H19)</f>
+        <v>0.99891971703265969</v>
+      </c>
+      <c r="N31">
+        <v>0.99891971703265969</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>-J24/H24</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>-H23*H24</f>
+        <v>-0.25</v>
+      </c>
+      <c r="F32">
+        <f>H24 * (1 - H24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" cm="1">
+        <f t="array" ref="B37:C38">TRANSPOSE(B18:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>1-(TANH(L12))^2</f>
+        <v>2.1593989233911204E-3</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37" cm="1">
+        <f t="array" ref="H37:H38">MMULT(MMULT(E37:F38,_xlfn.ANCHORARRAY( B37)),_xlfn.ANCHORARRAY( H31))</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37" cm="1">
+        <f t="array" ref="M37:O37">TRANSPOSE(H12:H14)</f>
+        <v>0.99998771165079559</v>
+      </c>
+      <c r="N37">
+        <v>0.76159415595576485</v>
+      </c>
+      <c r="O37">
+        <v>0.99998771165079559</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>1-(TANH(L13))^2</f>
+        <v>2.1593989233911204E-3</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" cm="1">
+        <f t="array" ref="B43:C45">TRANSPOSE(B12:D13)</f>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f>1-(TANH(L5))^2</f>
+        <v>2.4576547405286142E-5</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43" cm="1">
+        <f t="array" ref="I43:I45">MMULT(MMULT(E43:G45,_xlfn.ANCHORARRAY( B43)),_xlfn.ANCHORARRAY( H37))</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="O43" cm="1">
+        <f t="array" ref="O43:S43">TRANSPOSE(H5:H9)</f>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>1-(TANH(L6))^2</f>
+        <v>0.41997434161402614</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>1-(TANH(L7))^2</f>
+        <v>2.4576547405286142E-5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="N50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" cm="1">
+        <f t="array" ref="B51:C52">MMULT(_xlfn.ANCHORARRAY(H31),_xlfn.ANCHORARRAY( M31))</f>
+        <v>-0.49945985851632985</v>
+      </c>
+      <c r="C51">
+        <v>-0.49945985851632985</v>
+      </c>
+      <c r="E51" cm="1">
+        <f t="array" ref="E51:F52">B18:C19 - (0.1 *_xlfn.ANCHORARRAY( B51))</f>
+        <v>4.9945985851632985E-2</v>
+      </c>
+      <c r="F51">
+        <v>4.9945985851632985E-2</v>
+      </c>
+      <c r="N51" cm="1">
+        <f t="array" ref="N51:N52">MMULT(J31:K32,_xlfn.ANCHORARRAY( H31))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="P51" cm="1">
+        <f t="array" ref="P51:P52">J18:J19 + (0.1 *_xlfn.ANCHORARRAY( N51))</f>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.49945985851632985</v>
+      </c>
+      <c r="C52">
+        <v>0.49945985851632985</v>
+      </c>
+      <c r="E52">
+        <v>-4.9945985851632985E-2</v>
+      </c>
+      <c r="F52">
+        <v>-4.9945985851632985E-2</v>
+      </c>
+      <c r="N52">
+        <v>0.5</v>
+      </c>
+      <c r="P52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="N56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" cm="1">
+        <f t="array" ref="B57:D58">MMULT(_xlfn.ANCHORARRAY(H37),_xlfn.ANCHORARRAY( M37))</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57:H58">B12:D13 - (0.1 *_xlfn.ANCHORARRAY( B57))</f>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="N57" cm="1">
+        <f t="array" ref="N57:N58">MMULT(J37:K38,_xlfn.ANCHORARRAY( H37))</f>
+        <v>0</v>
+      </c>
+      <c r="P57" cm="1">
+        <f t="array" ref="P57:P58">J12:J13 - (0.1 *_xlfn.ANCHORARRAY( N57))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="N62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" cm="1">
+        <f t="array" ref="B63:F65">MMULT(_xlfn.ANCHORARRAY(I43),_xlfn.ANCHORARRAY( O43))</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="H63" cm="1">
+        <f t="array" ref="H63:L65">B5:F7 - (0.1 *_xlfn.ANCHORARRAY( B63))</f>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="N63" cm="1">
+        <f t="array" ref="N63:N65">MMULT(K43:M45,_xlfn.ANCHORARRAY( I43))</f>
+        <v>0</v>
+      </c>
+      <c r="P63" cm="1">
+        <f t="array" ref="P63:P65">J5:J7 - (0.1 *_xlfn.ANCHORARRAY( N63))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="H62:L62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100684128FF387ECC479A30CCCF70B53871" ma:contentTypeVersion="9" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="c7b07de941af2ffbc4963e87ad3254b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c563f900-15a4-40d8-a5c1-cc85a105d0b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f7a0e677430fd82d7adb4b3ac65a393" ns3:_="">
     <xsd:import namespace="c563f900-15a4-40d8-a5c1-cc85a105d0b9"/>
@@ -1241,31 +2521,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A275BE1-93B0-4405-8CDD-9A88EEB3305E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c563f900-15a4-40d8-a5c1-cc85a105d0b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2BD9F3-8A61-4C7D-9DF2-A50188CA84DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95B06E5D-8EE6-478C-957E-ADD03C41C538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1281,4 +2552,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2BD9F3-8A61-4C7D-9DF2-A50188CA84DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A275BE1-93B0-4405-8CDD-9A88EEB3305E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c563f900-15a4-40d8-a5c1-cc85a105d0b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>